--- a/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\out\artifacts\FIT_war_exploded\static\template\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="銷售成本預算" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
-  <si>
-    <t>SBU_法人</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>產品系列</t>
   </si>
@@ -81,13 +78,42 @@
   </si>
   <si>
     <t>銷貨成本</t>
+  </si>
+  <si>
+    <t>SBU_銷售法人</t>
+  </si>
+  <si>
+    <t>SBU_製造法人</t>
+  </si>
+  <si>
+    <t>次產業</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Bussiness</t>
+  </si>
+  <si>
+    <t>3+3</t>
+  </si>
+  <si>
+    <t>產品料號</t>
+  </si>
+  <si>
+    <t>交易類型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>賬款客戶</t>
+  </si>
+  <si>
+    <t>最終客戶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +129,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -113,12 +151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBEDAFF"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -128,38 +166,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
@@ -167,93 +205,108 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,87 +315,96 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,392 +682,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN3"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="73" max="73" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="7"/>
+    </row>
+    <row r="2" spans="1:74" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="4"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="10"/>
     </row>
-    <row r="2" spans="1:66" ht="15" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="8" t="s">
+    <row r="3" spans="1:74" s="2" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="7"/>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" ht="15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:74">
+      <c r="BV4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="G1" name="Range1_2_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="C1:E1" name="Range1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="H1:I1 I3:J3" name="Range1_2_2_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="J1" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="24">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:BJ1"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK1:BN2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:BR1"/>
+    <mergeCell ref="BS1:BV2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
@@ -344,6 +344,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -382,22 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,8 @@
   <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -697,212 +698,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="2" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="11"/>
     </row>
     <row r="2" spans="1:74" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="11" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="11" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="11" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="11" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="11" t="s">
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="11" t="s">
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="11" t="s">
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="11" t="s">
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="11" t="s">
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="10"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="14"/>
     </row>
     <row r="3" spans="1:74" s="2" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1107,16 +1108,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="J1" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:BR1"/>
     <mergeCell ref="BS1:BV2"/>
     <mergeCell ref="K2:O2"/>
@@ -1131,6 +1122,16 @@
     <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
@@ -90,9 +90,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Main Bussiness</t>
-  </si>
-  <si>
     <t>3+3</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>最終客戶</t>
+  </si>
+  <si>
+    <t>三大技術</t>
   </si>
 </sst>
 </file>
@@ -344,60 +344,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -693,217 +693,218 @@
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="73" max="73" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="2" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="11"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="7"/>
     </row>
     <row r="2" spans="1:74" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="15" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="15" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="15" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="15" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="15" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="15" t="s">
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="15" t="s">
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="15" t="s">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="15" t="s">
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="14"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="10"/>
     </row>
     <row r="3" spans="1:74" s="2" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1108,6 +1109,16 @@
     <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="J1" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:BR1"/>
     <mergeCell ref="BS1:BV2"/>
     <mergeCell ref="K2:O2"/>
@@ -1122,16 +1133,6 @@
     <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="銷售成本預算" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>產品系列</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>三大技術</t>
+  </si>
+  <si>
+    <t>Segment</t>
   </si>
 </sst>
 </file>
@@ -344,6 +347,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -382,22 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -682,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV4"/>
+  <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -692,447 +695,453 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="73" max="73" width="9.33203125" customWidth="1"/>
+    <col min="2" max="3" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="74" max="74" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:75" s="2" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="11"/>
     </row>
-    <row r="2" spans="1:74" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="11" t="s">
+    <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="11" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="11" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="11" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="11" t="s">
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="11" t="s">
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="11" t="s">
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="11" t="s">
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="11" t="s">
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="10"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="14"/>
     </row>
-    <row r="3" spans="1:74" s="2" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="3" t="s">
+    <row r="3" spans="1:75" s="2" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="W3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AB3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AG3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AL3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AQ3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AU3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AV3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BA3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BF3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BI3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BJ3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BK3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BN3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BO3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BP3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BV3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
-      <c r="BV4" s="1"/>
+    <row r="4" spans="1:75">
+      <c r="BW4" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="G1" name="Range1_2_2"/>
-    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="C1:E1" name="Range1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="H1:I1 I3:J3" name="Range1_2_2_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="J1" name="Range1_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="H1" name="Range1_2_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="D1:F1" name="Range1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="I1:J1 J3:K3" name="Range1_2_2_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="K1" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="24">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+  <mergeCells count="25">
+    <mergeCell ref="L1:BS1"/>
+    <mergeCell ref="BT1:BW2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:BR1"/>
-    <mergeCell ref="BS1:BV2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預測表_下载.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>產品系列</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Segment</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -347,60 +350,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -685,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -698,450 +701,456 @@
     <col min="2" max="3" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="74" max="74" width="9.33203125" customWidth="1"/>
+    <col min="75" max="75" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="2" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:76" s="2" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="11"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="7"/>
     </row>
-    <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="15" t="s">
+    <row r="2" spans="1:76" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="15" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="15" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="15" t="s">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="15" t="s">
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="15" t="s">
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="15" t="s">
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="15" t="s">
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="14"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="10"/>
     </row>
-    <row r="3" spans="1:75" s="2" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3" t="s">
+    <row r="3" spans="1:76" s="2" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="S3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AC3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AH3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AM3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AR3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AW3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BA3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BB3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BE3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BG3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BJ3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BL3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BO3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BP3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="BQ3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BW3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
-      <c r="BW4" s="1"/>
+    <row r="4" spans="1:76">
+      <c r="BX4" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="H1" name="Range1_2_2"/>
     <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="D1:F1" name="Range1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="I1:J1 J3:K3" name="Range1_2_2_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="K1" name="Range1_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="kMOkyKeL1zLqoyaTvEot5nttPhGTkpafsA6U6UBqlaoOe1HRsk7vlx+kZxwg/Pyx0xKnPi8vmwf/mXK/aQfcWw==" saltValue="mtnIeJstk11qGhD+FUJtGg==" spinCount="100000" sqref="I1:K1 J3:L3" name="Range1_2_2_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="L1" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="25">
-    <mergeCell ref="L1:BS1"/>
-    <mergeCell ref="BT1:BW2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="M1:BT1"/>
+    <mergeCell ref="BU1:BX2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BP2:BT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
